--- a/données exportées1.xlsx
+++ b/données exportées1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15315" windowHeight="8265" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15315" windowHeight="8265" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="302">
   <si>
     <t>livraison_id</t>
   </si>
@@ -101,9 +101,6 @@
     <t>SKYWALKER</t>
   </si>
   <si>
-    <t>luc</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>KENOBI</t>
   </si>
   <si>
-    <t>obiwan</t>
-  </si>
-  <si>
     <t>.00</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>ORGANA</t>
   </si>
   <si>
-    <t>leia</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -431,21 +422,12 @@
     <t>YAMAHA B1PWH - blanc brillant</t>
   </si>
   <si>
-    <t>1.jpg</t>
-  </si>
-  <si>
-    <t>2500.00</t>
-  </si>
-  <si>
     <t>YAMB1SG</t>
   </si>
   <si>
     <t>YAMAHA - B1SG2PE - noir brillant</t>
   </si>
   <si>
-    <t>2.jpg</t>
-  </si>
-  <si>
     <t>3500.00</t>
   </si>
   <si>
@@ -453,9 +435,6 @@
   </si>
   <si>
     <t>YAMAHA - B1-PE - black</t>
-  </si>
-  <si>
-    <t>3.jpg</t>
   </si>
   <si>
     <t>4500.00</t>
@@ -1004,8 +983,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,24 +1287,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,23 +1337,24 @@
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1358,11 +1364,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1372,11 +1381,14 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1386,13 +1398,16 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1401,7 +1416,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1429,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,41 +1437,49 @@
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>122</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
         <v>123</v>
-      </c>
-      <c r="H1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1464,25 +1487,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -1499,25 +1522,25 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
+        <v>127</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
@@ -1534,25 +1557,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
@@ -1566,28 +1589,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1601,28 +1624,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1636,34 +1659,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
         <v>3</v>
@@ -1671,34 +1694,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
         <v>3</v>
@@ -1706,34 +1729,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
         <v>3</v>
@@ -1741,34 +1764,34 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
         <v>3</v>
@@ -1776,34 +1799,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
@@ -1811,34 +1834,34 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
         <v>3</v>
@@ -1851,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,92 +1886,110 @@
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1958,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,177 +2012,195 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>190</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>191</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>192</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>193</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>194</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>195</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>196</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>197</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
         <v>198</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>199</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B16" t="s">
         <v>200</v>
-      </c>
-      <c r="B13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" t="s">
-        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2149,10 +2208,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2160,10 +2219,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -2171,10 +2230,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2182,10 +2241,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2193,10 +2252,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -2204,10 +2263,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -2215,453 +2274,453 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B60" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B61" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C62" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2671,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,59 +2743,77 @@
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2746,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,18 +2836,18 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2780,21 +2857,33 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -2802,21 +2891,27 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -2825,20 +2920,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2847,20 +2942,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2900,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,7 +3008,7 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2924,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2934,8 +3029,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2945,8 +3046,14 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2955,6 +3062,12 @@
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +3080,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,6 +3088,12 @@
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3016,20 +3135,20 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
@@ -3043,22 +3162,22 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
@@ -3072,22 +3191,22 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -3095,28 +3214,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3124,60 +3243,60 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
       <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3309,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,6 +3317,18 @@
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3205,49 +3336,49 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -3255,49 +3386,49 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3305,49 +3436,49 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
       </c>
       <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
         <v>66</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3355,28 +3486,28 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
@@ -3385,19 +3516,19 @@
         <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3407,10 +3538,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,92 +3551,110 @@
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>84</v>
       </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3515,10 +3664,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,92 +3676,110 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
         <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3625,7 +3792,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3633,23 +3800,25 @@
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3660,13 +3829,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42741</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42740</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,13 +3846,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
+        <v>107</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42748</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42747</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3694,47 +3863,47 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
+        <v>108</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42751</v>
+      </c>
+      <c r="E4" s="1">
+        <v>42751</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
